--- a/0_dataset_master/Experiment_edited_V5b.xlsx
+++ b/0_dataset_master/Experiment_edited_V5b.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7651e1ddaa4faee9/Desktop/Work_in_progress/Cognitive_performance/Analysis/20231004b/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KARIR\cognitive_learning\0_dataset_master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_0EF5E3F79D938F48A3654047512C1C3F79710C9D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{221F9847-F074-44FA-852E-7418411F29FF}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2001,7 +2000,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
@@ -2093,9 +2092,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2133,9 +2132,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2170,7 +2169,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2205,7 +2204,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2378,16 +2377,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BR307"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AU1" workbookViewId="0">
-      <selection activeCell="AX4" sqref="AX4"/>
+    <sheetView tabSelected="1" topLeftCell="BN1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="I1" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="BP184" sqref="BP184"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2599,7 +2600,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2799,7 +2800,7 @@
         <v>70.23657587548638</v>
       </c>
     </row>
-    <row r="3" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2999,7 +3000,7 @@
         <v>66.079414032382417</v>
       </c>
     </row>
-    <row r="4" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3199,7 +3200,7 @@
         <v>70.002982107355862</v>
       </c>
     </row>
-    <row r="5" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3402,7 +3403,7 @@
         <v>33.803169999999987</v>
       </c>
     </row>
-    <row r="6" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3602,7 +3603,7 @@
         <v>32.733630000000012</v>
       </c>
     </row>
-    <row r="7" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3808,7 +3809,7 @@
         <v>62.598870056497177</v>
       </c>
     </row>
-    <row r="8" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -4011,7 +4012,7 @@
         <v>68.326813365933177</v>
       </c>
     </row>
-    <row r="9" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -4211,7 +4212,7 @@
         <v>68.41483292583537</v>
       </c>
     </row>
-    <row r="10" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -4414,7 +4415,7 @@
         <v>61.11532125205931</v>
       </c>
     </row>
-    <row r="11" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -4617,7 +4618,7 @@
         <v>73.369020501138948</v>
       </c>
     </row>
-    <row r="12" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -4820,7 +4821,7 @@
         <v>67.662997459779845</v>
       </c>
     </row>
-    <row r="13" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -5023,7 +5024,7 @@
         <v>71.472307692307695</v>
       </c>
     </row>
-    <row r="14" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -5229,7 +5230,7 @@
         <v>73.361437456807181</v>
       </c>
     </row>
-    <row r="15" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -5435,7 +5436,7 @@
         <v>75.24849699398797</v>
       </c>
     </row>
-    <row r="16" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -5641,7 +5642,7 @@
         <v>67.918093819806401</v>
       </c>
     </row>
-    <row r="17" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -5847,7 +5848,7 @@
         <v>77.908500973393899</v>
       </c>
     </row>
-    <row r="18" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -6053,7 +6054,7 @@
         <v>79.6953125</v>
       </c>
     </row>
-    <row r="19" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -6259,7 +6260,7 @@
         <v>82.053351573187413</v>
       </c>
     </row>
-    <row r="20" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -6462,7 +6463,7 @@
         <v>68.713857677902624</v>
       </c>
     </row>
-    <row r="21" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -6668,7 +6669,7 @@
         <v>76.351156069364166</v>
       </c>
     </row>
-    <row r="22" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -6874,7 +6875,7 @@
         <v>77.031516183986369</v>
       </c>
     </row>
-    <row r="23" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -7077,7 +7078,7 @@
         <v>65.544684129429896</v>
       </c>
     </row>
-    <row r="24" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -7283,7 +7284,7 @@
         <v>70.080808080808083</v>
       </c>
     </row>
-    <row r="25" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -7486,7 +7487,7 @@
         <v>34.465425000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -7689,7 +7690,7 @@
         <v>63.296799999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -7892,7 +7893,7 @@
         <v>75.724893917963229</v>
       </c>
     </row>
-    <row r="28" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -8092,7 +8093,7 @@
         <v>66.970135746606331</v>
       </c>
     </row>
-    <row r="29" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -8295,7 +8296,7 @@
         <v>78.994594594594588</v>
       </c>
     </row>
-    <row r="30" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -8498,7 +8499,7 @@
         <v>68.465491923641707</v>
       </c>
     </row>
-    <row r="31" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -8701,7 +8702,7 @@
         <v>67.532019704433495</v>
       </c>
     </row>
-    <row r="32" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -8901,7 +8902,7 @@
         <v>66.831578947368428</v>
       </c>
     </row>
-    <row r="33" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -9101,7 +9102,7 @@
         <v>74.207112970711293</v>
       </c>
     </row>
-    <row r="34" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -9301,7 +9302,7 @@
         <v>61.002487562189053</v>
       </c>
     </row>
-    <row r="35" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -9507,7 +9508,7 @@
         <v>67.372666168782672</v>
       </c>
     </row>
-    <row r="36" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -9710,7 +9711,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -9910,7 +9911,7 @@
         <v>66.587890625</v>
       </c>
     </row>
-    <row r="38" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -10113,7 +10114,7 @@
         <v>65.049728049728046</v>
       </c>
     </row>
-    <row r="39" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -10316,7 +10317,7 @@
         <v>63.58414959928762</v>
       </c>
     </row>
-    <row r="40" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -10519,7 +10520,7 @@
         <v>66.973544973544975</v>
       </c>
     </row>
-    <row r="41" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -10725,7 +10726,7 @@
         <v>64.786324786324784</v>
       </c>
     </row>
-    <row r="42" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -10925,7 +10926,7 @@
         <v>32.678794999999987</v>
       </c>
     </row>
-    <row r="43" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -11128,7 +11129,7 @@
         <v>72.526151444184237</v>
       </c>
     </row>
-    <row r="44" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -11334,7 +11335,7 @@
         <v>66.102603369065847</v>
       </c>
     </row>
-    <row r="45" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -11540,7 +11541,7 @@
         <v>65.438759689922477</v>
       </c>
     </row>
-    <row r="46" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -11743,7 +11744,7 @@
         <v>60.282534246575352</v>
       </c>
     </row>
-    <row r="47" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -11949,7 +11950,7 @@
         <v>64.261829652996852</v>
       </c>
     </row>
-    <row r="48" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -12155,7 +12156,7 @@
         <v>67.92227979274611</v>
       </c>
     </row>
-    <row r="49" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -12358,7 +12359,7 @@
         <v>33.077964999999992</v>
       </c>
     </row>
-    <row r="50" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -12564,7 +12565,7 @@
         <v>64.639562157935885</v>
       </c>
     </row>
-    <row r="51" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -12767,7 +12768,7 @@
         <v>64.486635220125791</v>
       </c>
     </row>
-    <row r="52" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
@@ -12970,7 +12971,7 @@
         <v>57.473021582733807</v>
       </c>
     </row>
-    <row r="53" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
@@ -13173,7 +13174,7 @@
         <v>64.956112852664575</v>
       </c>
     </row>
-    <row r="54" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
@@ -13376,7 +13377,7 @@
         <v>68.87243401759531</v>
       </c>
     </row>
-    <row r="55" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
@@ -13582,7 +13583,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="56" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
@@ -13788,7 +13789,7 @@
         <v>65.069260700389108</v>
       </c>
     </row>
-    <row r="57" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
@@ -13994,7 +13995,7 @@
         <v>56.694312796208528</v>
       </c>
     </row>
-    <row r="58" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
@@ -14200,7 +14201,7 @@
         <v>65.951908396946564</v>
       </c>
     </row>
-    <row r="59" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
@@ -14406,7 +14407,7 @@
         <v>68.516930022573362</v>
       </c>
     </row>
-    <row r="60" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
@@ -14609,7 +14610,7 @@
         <v>86.220338983050851</v>
       </c>
     </row>
-    <row r="61" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
@@ -14815,7 +14816,7 @@
         <v>58.211229946524057</v>
       </c>
     </row>
-    <row r="62" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
@@ -15021,7 +15022,7 @@
         <v>63.950276243093917</v>
       </c>
     </row>
-    <row r="63" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
@@ -15227,7 +15228,7 @@
         <v>66.03990790483499</v>
       </c>
     </row>
-    <row r="64" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
@@ -15433,7 +15434,7 @@
         <v>65.206471494607086</v>
       </c>
     </row>
-    <row r="65" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
@@ -15639,7 +15640,7 @@
         <v>83.577549788774888</v>
       </c>
     </row>
-    <row r="66" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
@@ -15842,7 +15843,7 @@
         <v>57.436083408884862</v>
       </c>
     </row>
-    <row r="67" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
@@ -16051,7 +16052,7 @@
         <v>62.71670702179177</v>
       </c>
     </row>
-    <row r="68" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
@@ -16254,7 +16255,7 @@
         <v>64.085624509033778</v>
       </c>
     </row>
-    <row r="69" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
@@ -16463,7 +16464,7 @@
         <v>65.886923076923082</v>
       </c>
     </row>
-    <row r="70" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
@@ -16669,7 +16670,7 @@
         <v>79.505389980976531</v>
       </c>
     </row>
-    <row r="71" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
@@ -16872,7 +16873,7 @@
         <v>78.213827512473273</v>
       </c>
     </row>
-    <row r="72" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
@@ -17075,7 +17076,7 @@
         <v>63.212749003984072</v>
       </c>
     </row>
-    <row r="73" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
@@ -17278,7 +17279,7 @@
         <v>77.322390019697963</v>
       </c>
     </row>
-    <row r="74" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
@@ -17481,7 +17482,7 @@
         <v>81.210396039603964</v>
       </c>
     </row>
-    <row r="75" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
@@ -17684,7 +17685,7 @@
         <v>63.193601312551273</v>
       </c>
     </row>
-    <row r="76" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
@@ -17887,7 +17888,7 @@
         <v>76.197331460674164</v>
       </c>
     </row>
-    <row r="77" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
@@ -18090,7 +18091,7 @@
         <v>61.528301886792462</v>
       </c>
     </row>
-    <row r="78" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
@@ -18290,7 +18291,7 @@
         <v>62.695544554455452</v>
       </c>
     </row>
-    <row r="79" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
@@ -18493,7 +18494,7 @@
         <v>69.993445010924987</v>
       </c>
     </row>
-    <row r="80" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
@@ -18696,7 +18697,7 @@
         <v>80.424890006285352</v>
       </c>
     </row>
-    <row r="81" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
@@ -18899,7 +18900,7 @@
         <v>75.199324324324323</v>
       </c>
     </row>
-    <row r="82" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
@@ -19105,7 +19106,7 @@
         <v>84.174306393244876</v>
       </c>
     </row>
-    <row r="83" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
@@ -19311,7 +19312,7 @@
         <v>75.763648468708382</v>
       </c>
     </row>
-    <row r="84" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
@@ -19517,7 +19518,7 @@
         <v>87.135710178263366</v>
       </c>
     </row>
-    <row r="85" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
@@ -19720,7 +19721,7 @@
         <v>97.256449948400416</v>
       </c>
     </row>
-    <row r="86" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
@@ -19926,7 +19927,7 @@
         <v>70.612318840579704</v>
       </c>
     </row>
-    <row r="87" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
@@ -20132,7 +20133,7 @@
         <v>81.272218769421997</v>
       </c>
     </row>
-    <row r="88" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
@@ -20338,7 +20339,7 @@
         <v>79.332485696122063</v>
       </c>
     </row>
-    <row r="89" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
@@ -20544,7 +20545,7 @@
         <v>89.021384355655599</v>
       </c>
     </row>
-    <row r="90" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
@@ -20750,7 +20751,7 @@
         <v>97.717253317945762</v>
       </c>
     </row>
-    <row r="91" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
       </c>
@@ -20950,7 +20951,7 @@
         <v>68.769169329073478</v>
       </c>
     </row>
-    <row r="92" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
@@ -21153,7 +21154,7 @@
         <v>73.148555708390646</v>
       </c>
     </row>
-    <row r="93" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
       </c>
@@ -21353,7 +21354,7 @@
         <v>74.047195622435027</v>
       </c>
     </row>
-    <row r="94" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>
@@ -21553,7 +21554,7 @@
         <v>84.583283935981029</v>
       </c>
     </row>
-    <row r="95" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
       </c>
@@ -21753,7 +21754,7 @@
         <v>91.971085651936718</v>
       </c>
     </row>
-    <row r="96" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>94</v>
       </c>
@@ -21956,7 +21957,7 @@
         <v>83.903288201160535</v>
       </c>
     </row>
-    <row r="97" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
@@ -22159,7 +22160,7 @@
         <v>68.476333583771606</v>
       </c>
     </row>
-    <row r="98" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>96</v>
       </c>
@@ -22362,7 +22363,7 @@
         <v>68.961172161172158</v>
       </c>
     </row>
-    <row r="99" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>97</v>
       </c>
@@ -22565,7 +22566,7 @@
         <v>72.127464788732397</v>
       </c>
     </row>
-    <row r="100" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>98</v>
       </c>
@@ -22768,7 +22769,7 @@
         <v>85.707159624413151</v>
       </c>
     </row>
-    <row r="101" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>99</v>
       </c>
@@ -22971,7 +22972,7 @@
         <v>76.591595535128036</v>
       </c>
     </row>
-    <row r="102" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>100</v>
       </c>
@@ -23174,7 +23175,7 @@
         <v>73.942857142857136</v>
       </c>
     </row>
-    <row r="103" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>101</v>
       </c>
@@ -23377,7 +23378,7 @@
         <v>101.5197433366239</v>
       </c>
     </row>
-    <row r="104" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>102</v>
       </c>
@@ -23580,7 +23581,7 @@
         <v>78.029581993569138</v>
       </c>
     </row>
-    <row r="105" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>103</v>
       </c>
@@ -23783,7 +23784,7 @@
         <v>91.695128626163111</v>
       </c>
     </row>
-    <row r="106" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>104</v>
       </c>
@@ -23992,7 +23993,7 @@
         <v>84.016119402985069</v>
       </c>
     </row>
-    <row r="107" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>105</v>
       </c>
@@ -24198,7 +24199,7 @@
         <v>73.755782312925163</v>
       </c>
     </row>
-    <row r="108" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>106</v>
       </c>
@@ -24404,7 +24405,7 @@
         <v>74.367897727272734</v>
       </c>
     </row>
-    <row r="109" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>107</v>
       </c>
@@ -24610,7 +24611,7 @@
         <v>97.75</v>
       </c>
     </row>
-    <row r="110" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>108</v>
       </c>
@@ -24816,7 +24817,7 @@
         <v>74.757923128792982</v>
       </c>
     </row>
-    <row r="111" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>109</v>
       </c>
@@ -25022,7 +25023,7 @@
         <v>75.920982735723769</v>
       </c>
     </row>
-    <row r="112" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>110</v>
       </c>
@@ -25228,7 +25229,7 @@
         <v>78.597311139564667</v>
       </c>
     </row>
-    <row r="113" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>111</v>
       </c>
@@ -25437,7 +25438,7 @@
         <v>88.887188208616777</v>
       </c>
     </row>
-    <row r="114" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>112</v>
       </c>
@@ -25646,7 +25647,7 @@
         <v>103.6970731707317</v>
       </c>
     </row>
-    <row r="115" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>113</v>
       </c>
@@ -25855,7 +25856,7 @@
         <v>86.922588099364532</v>
       </c>
     </row>
-    <row r="116" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>114</v>
       </c>
@@ -26064,7 +26065,7 @@
         <v>86.052600472813239</v>
       </c>
     </row>
-    <row r="117" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>115</v>
       </c>
@@ -26273,7 +26274,7 @@
         <v>92.696920583468398</v>
       </c>
     </row>
-    <row r="118" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>116</v>
       </c>
@@ -26482,7 +26483,7 @@
         <v>82.457090687766282</v>
       </c>
     </row>
-    <row r="119" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>117</v>
       </c>
@@ -26691,7 +26692,7 @@
         <v>84.142509135200982</v>
       </c>
     </row>
-    <row r="120" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>118</v>
       </c>
@@ -26897,7 +26898,7 @@
         <v>84.302380952380958</v>
       </c>
     </row>
-    <row r="121" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>119</v>
       </c>
@@ -27106,7 +27107,7 @@
         <v>100.11991971901659</v>
       </c>
     </row>
-    <row r="122" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>120</v>
       </c>
@@ -27315,7 +27316,7 @@
         <v>86.80647024841133</v>
       </c>
     </row>
-    <row r="123" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>121</v>
       </c>
@@ -27521,7 +27522,7 @@
         <v>83.912183055040202</v>
       </c>
     </row>
-    <row r="124" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>122</v>
       </c>
@@ -27730,7 +27731,7 @@
         <v>87.098445595854926</v>
       </c>
     </row>
-    <row r="125" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>123</v>
       </c>
@@ -27936,7 +27937,7 @@
         <v>81.064516129032256</v>
       </c>
     </row>
-    <row r="126" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>124</v>
       </c>
@@ -28142,7 +28143,7 @@
         <v>97.384259259259252</v>
       </c>
     </row>
-    <row r="127" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>125</v>
       </c>
@@ -28348,7 +28349,7 @@
         <v>78.970063694267509</v>
       </c>
     </row>
-    <row r="128" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>126</v>
       </c>
@@ -28554,7 +28555,7 @@
         <v>78.395900064061493</v>
       </c>
     </row>
-    <row r="129" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>127</v>
       </c>
@@ -28760,7 +28761,7 @@
         <v>81.011779293242412</v>
       </c>
     </row>
-    <row r="130" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>128</v>
       </c>
@@ -28966,7 +28967,7 @@
         <v>86.43098427489808</v>
       </c>
     </row>
-    <row r="131" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>129</v>
       </c>
@@ -29169,7 +29170,7 @@
         <v>76.694171578258022</v>
       </c>
     </row>
-    <row r="132" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>130</v>
       </c>
@@ -29375,7 +29376,7 @@
         <v>96.360879904875148</v>
       </c>
     </row>
-    <row r="133" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>131</v>
       </c>
@@ -29578,7 +29579,7 @@
         <v>80.369475138121544</v>
       </c>
     </row>
-    <row r="134" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>132</v>
       </c>
@@ -29784,7 +29785,7 @@
         <v>73.911564625850346</v>
       </c>
     </row>
-    <row r="135" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>133</v>
       </c>
@@ -29990,7 +29991,7 @@
         <v>81.439578264395777</v>
       </c>
     </row>
-    <row r="136" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>134</v>
       </c>
@@ -30193,7 +30194,7 @@
         <v>78.980204342273311</v>
       </c>
     </row>
-    <row r="137" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>135</v>
       </c>
@@ -30402,7 +30403,7 @@
         <v>69.676174496644293</v>
       </c>
     </row>
-    <row r="138" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>136</v>
       </c>
@@ -30608,7 +30609,7 @@
         <v>79.071246819338427</v>
       </c>
     </row>
-    <row r="139" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>137</v>
       </c>
@@ -30817,7 +30818,7 @@
         <v>70.643112062812278</v>
       </c>
     </row>
-    <row r="140" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>138</v>
       </c>
@@ -31023,7 +31024,7 @@
         <v>77.249348958333329</v>
       </c>
     </row>
-    <row r="141" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>139</v>
       </c>
@@ -31232,7 +31233,7 @@
         <v>77.890967741935484</v>
       </c>
     </row>
-    <row r="142" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>140</v>
       </c>
@@ -31438,7 +31439,7 @@
         <v>80.449731903485258</v>
       </c>
     </row>
-    <row r="143" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>141</v>
       </c>
@@ -31647,7 +31648,7 @@
         <v>75.514056224899605</v>
       </c>
     </row>
-    <row r="144" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>142</v>
       </c>
@@ -31856,7 +31857,7 @@
         <v>75.829462508294625</v>
       </c>
     </row>
-    <row r="145" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>143</v>
       </c>
@@ -32065,7 +32066,7 @@
         <v>80.465701699181878</v>
       </c>
     </row>
-    <row r="146" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>144</v>
       </c>
@@ -32274,7 +32275,7 @@
         <v>69.989935298346509</v>
       </c>
     </row>
-    <row r="147" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>145</v>
       </c>
@@ -32483,7 +32484,7 @@
         <v>75.920582395764399</v>
       </c>
     </row>
-    <row r="148" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>146</v>
       </c>
@@ -32692,7 +32693,7 @@
         <v>89.156381066506896</v>
       </c>
     </row>
-    <row r="149" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>147</v>
       </c>
@@ -32901,7 +32902,7 @@
         <v>75.433052792654934</v>
       </c>
     </row>
-    <row r="150" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>148</v>
       </c>
@@ -33110,7 +33111,7 @@
         <v>77.432382704691818</v>
       </c>
     </row>
-    <row r="151" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>149</v>
       </c>
@@ -33319,7 +33320,7 @@
         <v>68.667661691542293</v>
       </c>
     </row>
-    <row r="152" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>150</v>
       </c>
@@ -33528,7 +33529,7 @@
         <v>79.839393939393943</v>
       </c>
     </row>
-    <row r="153" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>151</v>
       </c>
@@ -33737,7 +33738,7 @@
         <v>73.586327782646805</v>
       </c>
     </row>
-    <row r="154" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>152</v>
       </c>
@@ -33943,7 +33944,7 @@
         <v>83.522464698331191</v>
       </c>
     </row>
-    <row r="155" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>153</v>
       </c>
@@ -34152,7 +34153,7 @@
         <v>68.238586156111936</v>
       </c>
     </row>
-    <row r="156" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>154</v>
       </c>
@@ -34361,7 +34362,7 @@
         <v>70.267515923566876</v>
       </c>
     </row>
-    <row r="157" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>155</v>
       </c>
@@ -34570,7 +34571,7 @@
         <v>88.464094955489614</v>
       </c>
     </row>
-    <row r="158" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>156</v>
       </c>
@@ -34779,7 +34780,7 @@
         <v>65.023809523809518</v>
       </c>
     </row>
-    <row r="159" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>157</v>
       </c>
@@ -34985,7 +34986,7 @@
         <v>68.316309719934097</v>
       </c>
     </row>
-    <row r="160" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>158</v>
       </c>
@@ -35194,7 +35195,7 @@
         <v>68.119367588932803</v>
       </c>
     </row>
-    <row r="161" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>159</v>
       </c>
@@ -35400,7 +35401,7 @@
         <v>68.78111587982832</v>
       </c>
     </row>
-    <row r="162" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>160</v>
       </c>
@@ -35609,7 +35610,7 @@
         <v>73.560517038777903</v>
       </c>
     </row>
-    <row r="163" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>161</v>
       </c>
@@ -35818,7 +35819,7 @@
         <v>83.696394686907027</v>
       </c>
     </row>
-    <row r="164" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>162</v>
       </c>
@@ -36027,7 +36028,7 @@
         <v>66.970676691729324</v>
       </c>
     </row>
-    <row r="165" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>163</v>
       </c>
@@ -36236,7 +36237,7 @@
         <v>67.684249628528974</v>
       </c>
     </row>
-    <row r="166" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>164</v>
       </c>
@@ -36442,7 +36443,7 @@
         <v>90.921568627450981</v>
       </c>
     </row>
-    <row r="167" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>165</v>
       </c>
@@ -36648,7 +36649,7 @@
         <v>78.330268741159827</v>
       </c>
     </row>
-    <row r="168" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>166</v>
       </c>
@@ -36854,7 +36855,7 @@
         <v>65.343605546995377</v>
       </c>
     </row>
-    <row r="169" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>167</v>
       </c>
@@ -37060,7 +37061,7 @@
         <v>68.614742698191932</v>
       </c>
     </row>
-    <row r="170" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>168</v>
       </c>
@@ -37263,7 +37264,7 @@
         <v>69.345740281224153</v>
       </c>
     </row>
-    <row r="171" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>169</v>
       </c>
@@ -37469,7 +37470,7 @@
         <v>68.343725019984007</v>
       </c>
     </row>
-    <row r="172" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>170</v>
       </c>
@@ -37675,7 +37676,7 @@
         <v>69.063628546861565</v>
       </c>
     </row>
-    <row r="173" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>171</v>
       </c>
@@ -37881,7 +37882,7 @@
         <v>68.6341743119266</v>
       </c>
     </row>
-    <row r="174" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>172</v>
       </c>
@@ -38087,7 +38088,7 @@
         <v>80.660012476606369</v>
       </c>
     </row>
-    <row r="175" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>173</v>
       </c>
@@ -38290,7 +38291,7 @@
         <v>65.929078014184398</v>
       </c>
     </row>
-    <row r="176" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>174</v>
       </c>
@@ -38493,7 +38494,7 @@
         <v>68.040100250626566</v>
       </c>
     </row>
-    <row r="177" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>175</v>
       </c>
@@ -38696,7 +38697,7 @@
         <v>76.085317460317455</v>
       </c>
     </row>
-    <row r="178" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>176</v>
       </c>
@@ -38899,7 +38900,7 @@
         <v>68.187072243346009</v>
       </c>
     </row>
-    <row r="179" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>177</v>
       </c>
@@ -39105,7 +39106,7 @@
         <v>67.937016574585641</v>
       </c>
     </row>
-    <row r="180" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>178</v>
       </c>
@@ -39176,7 +39177,7 @@
         <v>82.537500000000009</v>
       </c>
       <c r="X180">
-        <v>53.484013157894722</v>
+        <v>27.75</v>
       </c>
       <c r="Y180">
         <v>635.82237740000005</v>
@@ -39301,6 +39302,9 @@
       <c r="BO180">
         <v>5</v>
       </c>
+      <c r="BP180">
+        <v>29.4</v>
+      </c>
       <c r="BQ180">
         <v>33.664040000000007</v>
       </c>
@@ -39308,7 +39312,7 @@
         <v>69.513376717281275</v>
       </c>
     </row>
-    <row r="181" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>179</v>
       </c>
@@ -39379,7 +39383,7 @@
         <v>82.537500000000009</v>
       </c>
       <c r="X181">
-        <v>53.569249999999982</v>
+        <v>27.75</v>
       </c>
       <c r="Y181">
         <v>635.82237740000005</v>
@@ -39504,6 +39508,9 @@
       <c r="BO181">
         <v>7</v>
       </c>
+      <c r="BP181">
+        <v>29.4</v>
+      </c>
       <c r="BQ181">
         <v>33.152999999999999</v>
       </c>
@@ -39511,7 +39518,7 @@
         <v>83.693003618817855</v>
       </c>
     </row>
-    <row r="182" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>180</v>
       </c>
@@ -39720,7 +39727,7 @@
         <v>82.515251989389924</v>
       </c>
     </row>
-    <row r="183" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>181</v>
       </c>
@@ -39791,7 +39798,7 @@
         <v>82.075000000000017</v>
       </c>
       <c r="X183">
-        <v>79.298499999999976</v>
+        <v>27.66</v>
       </c>
       <c r="Y183">
         <v>635.82237740000005</v>
@@ -39919,6 +39926,9 @@
       <c r="BO183">
         <v>4</v>
       </c>
+      <c r="BP183">
+        <v>29.2</v>
+      </c>
       <c r="BQ183">
         <v>33.852434999999993</v>
       </c>
@@ -39926,7 +39936,7 @@
         <v>77.619249823071485</v>
       </c>
     </row>
-    <row r="184" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>182</v>
       </c>
@@ -40135,7 +40145,7 @@
         <v>85.736330498177395</v>
       </c>
     </row>
-    <row r="185" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>183</v>
       </c>
@@ -40344,7 +40354,7 @@
         <v>68.001687763713079</v>
       </c>
     </row>
-    <row r="186" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>184</v>
       </c>
@@ -40553,7 +40563,7 @@
         <v>88.034207525655646</v>
       </c>
     </row>
-    <row r="187" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>185</v>
       </c>
@@ -40762,7 +40772,7 @@
         <v>82.016535433070871</v>
       </c>
     </row>
-    <row r="188" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>186</v>
       </c>
@@ -40971,7 +40981,7 @@
         <v>72.387038703870388</v>
       </c>
     </row>
-    <row r="189" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>187</v>
       </c>
@@ -41180,7 +41190,7 @@
         <v>82.958080194410698</v>
       </c>
     </row>
-    <row r="190" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>188</v>
       </c>
@@ -41383,7 +41393,7 @@
         <v>64.133016627078391</v>
       </c>
     </row>
-    <row r="191" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>189</v>
       </c>
@@ -41586,7 +41596,7 @@
         <v>70.459657701711492</v>
       </c>
     </row>
-    <row r="192" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>190</v>
       </c>
@@ -41789,7 +41799,7 @@
         <v>73.579809004092766</v>
       </c>
     </row>
-    <row r="193" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>191</v>
       </c>
@@ -41992,7 +42002,7 @@
         <v>73.387323943661968</v>
       </c>
     </row>
-    <row r="194" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>192</v>
       </c>
@@ -42195,7 +42205,7 @@
         <v>82.496947496947499</v>
       </c>
     </row>
-    <row r="195" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>193</v>
       </c>
@@ -42398,7 +42408,7 @@
         <v>64.197262479871171</v>
       </c>
     </row>
-    <row r="196" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>194</v>
       </c>
@@ -42604,7 +42614,7 @@
         <v>69.867521367521363</v>
       </c>
     </row>
-    <row r="197" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>195</v>
       </c>
@@ -42810,7 +42820,7 @@
         <v>74.590778097982707</v>
       </c>
     </row>
-    <row r="198" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>196</v>
       </c>
@@ -43016,7 +43026,7 @@
         <v>70.697336561743342</v>
       </c>
     </row>
-    <row r="199" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>197</v>
       </c>
@@ -43222,7 +43232,7 @@
         <v>79.431572246976444</v>
       </c>
     </row>
-    <row r="200" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>198</v>
       </c>
@@ -43425,7 +43435,7 @@
         <v>69.67153996101365</v>
       </c>
     </row>
-    <row r="201" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>199</v>
       </c>
@@ -43628,7 +43638,7 @@
         <v>33.966450000000023</v>
       </c>
     </row>
-    <row r="202" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>200</v>
       </c>
@@ -43831,7 +43841,7 @@
         <v>71.882706766917295</v>
       </c>
     </row>
-    <row r="203" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>201</v>
       </c>
@@ -44037,7 +44047,7 @@
         <v>75.236912751677849</v>
       </c>
     </row>
-    <row r="204" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>202</v>
       </c>
@@ -44243,7 +44253,7 @@
         <v>58.271728271728271</v>
       </c>
     </row>
-    <row r="205" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>203</v>
       </c>
@@ -44446,7 +44456,7 @@
         <v>76.929457870672763</v>
       </c>
     </row>
-    <row r="206" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>204</v>
       </c>
@@ -44652,7 +44662,7 @@
         <v>57.865439093484419</v>
       </c>
     </row>
-    <row r="207" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>205</v>
       </c>
@@ -44858,7 +44868,7 @@
         <v>73.448177269478194</v>
       </c>
     </row>
-    <row r="208" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>206</v>
       </c>
@@ -45061,7 +45071,7 @@
         <v>76.348968105065666</v>
       </c>
     </row>
-    <row r="209" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>207</v>
       </c>
@@ -45267,7 +45277,7 @@
         <v>80.896138482023972</v>
       </c>
     </row>
-    <row r="210" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>208</v>
       </c>
@@ -45473,7 +45483,7 @@
         <v>81.74199507389163</v>
       </c>
     </row>
-    <row r="211" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>209</v>
       </c>
@@ -45676,7 +45686,7 @@
         <v>76.47004608294931</v>
       </c>
     </row>
-    <row r="212" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>210</v>
       </c>
@@ -45885,7 +45895,7 @@
         <v>75.464326160815403</v>
       </c>
     </row>
-    <row r="213" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>211</v>
       </c>
@@ -46094,7 +46104,7 @@
         <v>90.617859123682749</v>
       </c>
     </row>
-    <row r="214" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>212</v>
       </c>
@@ -46303,7 +46313,7 @@
         <v>92.068208092485548</v>
       </c>
     </row>
-    <row r="215" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>213</v>
       </c>
@@ -46512,7 +46522,7 @@
         <v>97.615384615384613</v>
       </c>
     </row>
-    <row r="216" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>214</v>
       </c>
@@ -46721,7 +46731,7 @@
         <v>93.282491944146074</v>
       </c>
     </row>
-    <row r="217" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>215</v>
       </c>
@@ -46927,7 +46937,7 @@
         <v>93.14039806347499</v>
       </c>
     </row>
-    <row r="218" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>216</v>
       </c>
@@ -47133,7 +47143,7 @@
         <v>89.172029702970292</v>
       </c>
     </row>
-    <row r="219" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>217</v>
       </c>
@@ -47342,7 +47352,7 @@
         <v>96.542381695267807</v>
       </c>
     </row>
-    <row r="220" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>218</v>
       </c>
@@ -47551,7 +47561,7 @@
         <v>95.579232017306651</v>
       </c>
     </row>
-    <row r="221" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>219</v>
       </c>
@@ -47760,7 +47770,7 @@
         <v>91.692771084337352</v>
       </c>
     </row>
-    <row r="222" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>220</v>
       </c>
@@ -47969,7 +47979,7 @@
         <v>76.107338444687841</v>
       </c>
     </row>
-    <row r="223" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>221</v>
       </c>
@@ -48175,7 +48185,7 @@
         <v>90.651188501934769</v>
       </c>
     </row>
-    <row r="224" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>222</v>
       </c>
@@ -48378,7 +48388,7 @@
         <v>78.542359461599361</v>
       </c>
     </row>
-    <row r="225" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>223</v>
       </c>
@@ -48584,7 +48594,7 @@
         <v>88.241025641025644</v>
       </c>
     </row>
-    <row r="226" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>224</v>
       </c>
@@ -48790,7 +48800,7 @@
         <v>86.757242178447271</v>
       </c>
     </row>
-    <row r="227" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>225</v>
       </c>
@@ -48993,7 +49003,7 @@
         <v>92.351248642779581</v>
       </c>
     </row>
-    <row r="228" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>226</v>
       </c>
@@ -49199,7 +49209,7 @@
         <v>88.17620137299771</v>
       </c>
     </row>
-    <row r="229" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>227</v>
       </c>
@@ -49405,7 +49415,7 @@
         <v>69.051818181818177</v>
       </c>
     </row>
-    <row r="230" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>228</v>
       </c>
@@ -49611,7 +49621,7 @@
         <v>87.962814645308924</v>
       </c>
     </row>
-    <row r="231" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>229</v>
       </c>
@@ -49814,7 +49824,7 @@
         <v>80.388190954773876</v>
       </c>
     </row>
-    <row r="232" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>230</v>
       </c>
@@ -50017,7 +50027,7 @@
         <v>86.353453279164242</v>
       </c>
     </row>
-    <row r="233" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>231</v>
       </c>
@@ -50220,7 +50230,7 @@
         <v>75.011254019292608</v>
       </c>
     </row>
-    <row r="234" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>232</v>
       </c>
@@ -50426,7 +50436,7 @@
         <v>82.227359088030397</v>
       </c>
     </row>
-    <row r="235" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>233</v>
       </c>
@@ -50629,7 +50639,7 @@
         <v>66.994327390599679</v>
       </c>
     </row>
-    <row r="236" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>234</v>
       </c>
@@ -50835,7 +50845,7 @@
         <v>78.63082191780822</v>
       </c>
     </row>
-    <row r="237" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>235</v>
       </c>
@@ -51041,7 +51051,7 @@
         <v>80.213249211356469</v>
       </c>
     </row>
-    <row r="238" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>236</v>
       </c>
@@ -51247,7 +51257,7 @@
         <v>85.258254716981128</v>
       </c>
     </row>
-    <row r="239" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>237</v>
       </c>
@@ -51453,7 +51463,7 @@
         <v>81.158936301793446</v>
       </c>
     </row>
-    <row r="240" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>238</v>
       </c>
@@ -51659,7 +51669,7 @@
         <v>68.910518053375199</v>
       </c>
     </row>
-    <row r="241" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>239</v>
       </c>
@@ -51865,7 +51875,7 @@
         <v>63.943447037701972</v>
       </c>
     </row>
-    <row r="242" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>240</v>
       </c>
@@ -52071,7 +52081,7 @@
         <v>68.169642857142861</v>
       </c>
     </row>
-    <row r="243" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>241</v>
       </c>
@@ -52280,7 +52290,7 @@
         <v>77.752757949383522</v>
       </c>
     </row>
-    <row r="244" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>242</v>
       </c>
@@ -52486,7 +52496,7 @@
         <v>73.554756195043964</v>
       </c>
     </row>
-    <row r="245" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>243</v>
       </c>
@@ -52692,7 +52702,7 @@
         <v>83.310427968655816</v>
       </c>
     </row>
-    <row r="246" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>244</v>
       </c>
@@ -52898,7 +52908,7 @@
         <v>78.857233906947101</v>
       </c>
     </row>
-    <row r="247" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>245</v>
       </c>
@@ -53107,7 +53117,7 @@
         <v>62.205167173252278</v>
       </c>
     </row>
-    <row r="248" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>246</v>
       </c>
@@ -53313,7 +53323,7 @@
         <v>80.037153652392945</v>
       </c>
     </row>
-    <row r="249" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>247</v>
       </c>
@@ -53519,7 +53529,7 @@
         <v>62.42307692307692</v>
       </c>
     </row>
-    <row r="250" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>248</v>
       </c>
@@ -53725,7 +53735,7 @@
         <v>67.72187776793622</v>
       </c>
     </row>
-    <row r="251" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>249</v>
       </c>
@@ -53934,7 +53944,7 @@
         <v>77.971465629053171</v>
       </c>
     </row>
-    <row r="252" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>250</v>
       </c>
@@ -54140,7 +54150,7 @@
         <v>77.970398970398975</v>
       </c>
     </row>
-    <row r="253" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>251</v>
       </c>
@@ -54346,7 +54356,7 @@
         <v>71.570422535211264</v>
       </c>
     </row>
-    <row r="254" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>252</v>
       </c>
@@ -54555,7 +54565,7 @@
         <v>77.272845953002616</v>
       </c>
     </row>
-    <row r="255" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>253</v>
       </c>
@@ -54764,7 +54774,7 @@
         <v>82.764705882352942</v>
       </c>
     </row>
-    <row r="256" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>254</v>
       </c>
@@ -54973,7 +54983,7 @@
         <v>77.397402597402603</v>
       </c>
     </row>
-    <row r="257" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>255</v>
       </c>
@@ -55179,7 +55189,7 @@
         <v>75.3010033444816</v>
       </c>
     </row>
-    <row r="258" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>256</v>
       </c>
@@ -55391,7 +55401,7 @@
         <v>98.744186046511629</v>
       </c>
     </row>
-    <row r="259" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>257</v>
       </c>
@@ -55597,7 +55607,7 @@
         <v>103.38495575221241</v>
       </c>
     </row>
-    <row r="260" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>258</v>
       </c>
@@ -55803,7 +55813,7 @@
         <v>107.2099447513812</v>
       </c>
     </row>
-    <row r="261" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>259</v>
       </c>
@@ -56012,7 +56022,7 @@
         <v>86.42690058479532</v>
       </c>
     </row>
-    <row r="262" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>260</v>
       </c>
@@ -56221,7 +56231,7 @@
         <v>78.695402298850581</v>
       </c>
     </row>
-    <row r="263" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>261</v>
       </c>
@@ -56430,7 +56440,7 @@
         <v>76.0292747837658</v>
       </c>
     </row>
-    <row r="264" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>262</v>
       </c>
@@ -56639,7 +56649,7 @@
         <v>75.428571428571431</v>
       </c>
     </row>
-    <row r="265" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>263</v>
       </c>
@@ -56848,7 +56858,7 @@
         <v>89.490158730158726</v>
       </c>
     </row>
-    <row r="266" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>264</v>
       </c>
@@ -57054,7 +57064,7 @@
         <v>85.082161361954107</v>
       </c>
     </row>
-    <row r="267" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>265</v>
       </c>
@@ -57263,7 +57273,7 @@
         <v>83.061980830670933</v>
       </c>
     </row>
-    <row r="268" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>266</v>
       </c>
@@ -57469,7 +57479,7 @@
         <v>72.763139453398736</v>
       </c>
     </row>
-    <row r="269" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>267</v>
       </c>
@@ -57675,7 +57685,7 @@
         <v>70.611885546588411</v>
       </c>
     </row>
-    <row r="270" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>268</v>
       </c>
@@ -57884,7 +57894,7 @@
         <v>78.427103403982017</v>
       </c>
     </row>
-    <row r="271" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>269</v>
       </c>
@@ -58090,7 +58100,7 @@
         <v>102.41099855282199</v>
       </c>
     </row>
-    <row r="272" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>270</v>
       </c>
@@ -58293,7 +58303,7 @@
         <v>81.62818003913894</v>
       </c>
     </row>
-    <row r="273" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>271</v>
       </c>
@@ -58496,7 +58506,7 @@
         <v>81.224019912881147</v>
       </c>
     </row>
-    <row r="274" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>272</v>
       </c>
@@ -58702,7 +58712,7 @@
         <v>79.079365079365076</v>
       </c>
     </row>
-    <row r="275" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>273</v>
       </c>
@@ -58908,7 +58918,7 @@
         <v>75.339799331103677</v>
       </c>
     </row>
-    <row r="276" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>274</v>
       </c>
@@ -59111,7 +59121,7 @@
         <v>98.745967741935488</v>
       </c>
     </row>
-    <row r="277" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>275</v>
       </c>
@@ -59317,7 +59327,7 @@
         <v>71.805185704274706</v>
       </c>
     </row>
-    <row r="278" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>276</v>
       </c>
@@ -59520,7 +59530,7 @@
         <v>76.780487804878049</v>
       </c>
     </row>
-    <row r="279" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>277</v>
       </c>
@@ -59723,7 +59733,7 @@
         <v>79.009572431397572</v>
       </c>
     </row>
-    <row r="280" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>278</v>
       </c>
@@ -59929,7 +59939,7 @@
         <v>74.963112005365531</v>
       </c>
     </row>
-    <row r="281" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>279</v>
       </c>
@@ -60132,7 +60142,7 @@
         <v>68.481945467943987</v>
       </c>
     </row>
-    <row r="282" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>280</v>
       </c>
@@ -60335,7 +60345,7 @@
         <v>86.495920745920742</v>
       </c>
     </row>
-    <row r="283" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>281</v>
       </c>
@@ -60538,7 +60548,7 @@
         <v>99.203883495145632</v>
       </c>
     </row>
-    <row r="284" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>282</v>
       </c>
@@ -60744,7 +60754,7 @@
         <v>84.786054827175207</v>
       </c>
     </row>
-    <row r="285" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>283</v>
       </c>
@@ -60950,7 +60960,7 @@
         <v>84.551989730423614</v>
       </c>
     </row>
-    <row r="286" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>284</v>
       </c>
@@ -61156,7 +61166,7 @@
         <v>97.109617373319551</v>
       </c>
     </row>
-    <row r="287" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>285</v>
       </c>
@@ -61365,7 +61375,7 @@
         <v>84.028690974297675</v>
       </c>
     </row>
-    <row r="288" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>286</v>
       </c>
@@ -61571,7 +61581,7 @@
         <v>76.351190476190482</v>
       </c>
     </row>
-    <row r="289" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>287</v>
       </c>
@@ -61777,7 +61787,7 @@
         <v>117.8402555910543</v>
       </c>
     </row>
-    <row r="290" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>288</v>
       </c>
@@ -61986,7 +61996,7 @@
         <v>97.574954846478022</v>
       </c>
     </row>
-    <row r="291" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>289</v>
       </c>
@@ -62195,7 +62205,7 @@
         <v>83.766926303175552</v>
       </c>
     </row>
-    <row r="292" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>290</v>
       </c>
@@ -62404,7 +62414,7 @@
         <v>100.5182408795602</v>
       </c>
     </row>
-    <row r="293" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>291</v>
       </c>
@@ -62613,7 +62623,7 @@
         <v>78.725527831094055</v>
       </c>
     </row>
-    <row r="294" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>292</v>
       </c>
@@ -62822,7 +62832,7 @@
         <v>79.203314212874446</v>
       </c>
     </row>
-    <row r="295" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>293</v>
       </c>
@@ -63031,7 +63041,7 @@
         <v>112.91176470588231</v>
       </c>
     </row>
-    <row r="296" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>294</v>
       </c>
@@ -63234,7 +63244,7 @@
         <v>70.799428979300501</v>
       </c>
     </row>
-    <row r="297" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>295</v>
       </c>
@@ -63437,7 +63447,7 @@
         <v>87.418646080760098</v>
       </c>
     </row>
-    <row r="298" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>296</v>
       </c>
@@ -63643,7 +63653,7 @@
         <v>80.913043478260875</v>
       </c>
     </row>
-    <row r="299" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>297</v>
       </c>
@@ -63846,7 +63856,7 @@
         <v>72.288005578800565</v>
       </c>
     </row>
-    <row r="300" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>298</v>
       </c>
@@ -64049,7 +64059,7 @@
         <v>86.46776084407972</v>
       </c>
     </row>
-    <row r="301" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>299</v>
       </c>
@@ -64252,7 +64262,7 @@
         <v>98.581569965870301</v>
       </c>
     </row>
-    <row r="302" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>300</v>
       </c>
@@ -64458,7 +64468,7 @@
         <v>73.1840830449827</v>
       </c>
     </row>
-    <row r="303" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>301</v>
       </c>
@@ -64664,7 +64674,7 @@
         <v>78.538707613563659</v>
       </c>
     </row>
-    <row r="304" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>302</v>
       </c>
@@ -64867,7 +64877,7 @@
         <v>84.744516893894485</v>
       </c>
     </row>
-    <row r="305" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>303</v>
       </c>
@@ -65073,7 +65083,7 @@
         <v>81.522656734947233</v>
       </c>
     </row>
-    <row r="306" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>304</v>
       </c>
@@ -65279,7 +65289,7 @@
         <v>74.242711864406786</v>
       </c>
     </row>
-    <row r="307" spans="1:70" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>305</v>
       </c>
